--- a/data-raw/yuba_release.xlsx
+++ b/data-raw/yuba_release.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EDI_Query__Releases"/>
   </sheets>
   <definedNames>
-    <definedName name="EDI_Query__Releases">'EDI_Query__Releases'!$A$1:$P$20</definedName>
+    <definedName name="EDI_Query__Releases">'EDI_Query__Releases'!$A$1:$Q$20</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -383,55 +383,60 @@
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
+          <t>markedLifeStage</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
           <t>markedFishOrigin</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>sourceOfFishSite</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>releaseSite</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="J1" s="0" t="inlineStr">
         <is>
           <t>releaseSubSite</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="K1" s="0" t="inlineStr">
         <is>
           <t>nReleased</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="L1" s="0" t="inlineStr">
         <is>
           <t>testDays</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
         <is>
           <t>appliedMarkType</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="N1" s="0" t="inlineStr">
         <is>
           <t>appliedMarkColor</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="O1" s="0" t="inlineStr">
         <is>
           <t>appliedMarkPosition</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
+      <c r="P1" s="0" t="inlineStr">
         <is>
           <t>appliedMarkCode</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>IncludeInAnalysis</t>
         </is>
@@ -461,18 +466,23 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="K2" s="0">
+      <c r="L2" s="0">
         <v>0</v>
       </c>
-      <c r="P2" s="0" t="inlineStr">
+      <c r="Q2" s="0" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -498,43 +508,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J3" s="0">
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K3" s="0">
         <v>1090</v>
       </c>
-      <c r="K3" s="0">
-        <v>7</v>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L3" s="0">
+        <v>7</v>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="M3" s="0" t="inlineStr">
+      <c r="N3" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="O3" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
       </c>
-      <c r="P3" s="0" t="inlineStr">
+      <c r="Q3" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -560,43 +570,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J4" s="0">
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K4" s="0">
         <v>2018</v>
       </c>
-      <c r="K4" s="0">
-        <v>7</v>
-      </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L4" s="0">
+        <v>7</v>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="M4" s="0" t="inlineStr">
+      <c r="N4" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="O4" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
       </c>
-      <c r="P4" s="0" t="inlineStr">
+      <c r="Q4" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -622,43 +632,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J5" s="0">
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K5" s="0">
         <v>2001</v>
       </c>
-      <c r="K5" s="0">
-        <v>7</v>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L5" s="0">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
         <is>
           <t>Pigment / dye</t>
         </is>
       </c>
-      <c r="M5" s="0" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="N5" s="0" t="inlineStr">
+      <c r="O5" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
         </is>
       </c>
-      <c r="P5" s="0" t="inlineStr">
+      <c r="Q5" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -684,43 +694,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>Hallwood</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J6" s="0">
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K6" s="0">
         <v>795</v>
       </c>
-      <c r="K6" s="0">
-        <v>7</v>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L6" s="0">
+        <v>7</v>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M6" s="0" t="inlineStr">
+      <c r="N6" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="N6" s="0" t="inlineStr">
+      <c r="O6" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P6" s="0" t="inlineStr">
+      <c r="Q6" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -746,43 +756,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>Hallwood</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J7" s="0">
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K7" s="0">
         <v>376</v>
       </c>
-      <c r="K7" s="0">
-        <v>7</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L7" s="0">
+        <v>7</v>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M7" s="0" t="inlineStr">
+      <c r="N7" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="N7" s="0" t="inlineStr">
+      <c r="O7" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P7" s="0" t="inlineStr">
+      <c r="Q7" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -808,43 +818,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J8" s="0">
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K8" s="0">
         <v>1011</v>
       </c>
-      <c r="K8" s="0">
-        <v>7</v>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L8" s="0">
+        <v>7</v>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M8" s="0" t="inlineStr">
+      <c r="N8" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N8" s="0" t="inlineStr">
+      <c r="O8" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P8" s="0" t="inlineStr">
+      <c r="Q8" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -870,43 +880,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>Hallwood</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J9" s="0">
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K9" s="0">
         <v>257</v>
       </c>
-      <c r="K9" s="0">
-        <v>7</v>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L9" s="0">
+        <v>7</v>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="N9" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="N9" s="0" t="inlineStr">
+      <c r="O9" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P9" s="0" t="inlineStr">
+      <c r="Q9" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -932,43 +942,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F10" s="0" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="G10" s="0" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>Hallwood</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J10" s="0">
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K10" s="0">
         <v>1173</v>
       </c>
-      <c r="K10" s="0">
-        <v>7</v>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="L10" s="0">
+        <v>7</v>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M10" s="0" t="inlineStr">
+      <c r="N10" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="N10" s="0" t="inlineStr">
+      <c r="O10" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P10" s="0" t="inlineStr">
+      <c r="Q10" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -994,43 +1004,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F11" s="0" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G11" s="0" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J11" s="0">
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K11" s="0">
         <v>509</v>
       </c>
-      <c r="K11" s="0">
-        <v>7</v>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
+      <c r="L11" s="0">
+        <v>7</v>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M11" s="0" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N11" s="0" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P11" s="0" t="inlineStr">
+      <c r="Q11" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1056,43 +1066,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F12" s="0" t="inlineStr">
+      <c r="G12" s="0" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>Hallwood</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J12" s="0">
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K12" s="0">
         <v>290</v>
       </c>
-      <c r="K12" s="0">
-        <v>7</v>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
+      <c r="L12" s="0">
+        <v>7</v>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="N12" s="0" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="N12" s="0" t="inlineStr">
+      <c r="O12" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P12" s="0" t="inlineStr">
+      <c r="Q12" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1118,43 +1128,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F13" s="0" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G13" s="0" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J13" s="0">
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K13" s="0">
         <v>999</v>
       </c>
-      <c r="K13" s="0">
-        <v>7</v>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
+      <c r="L13" s="0">
+        <v>7</v>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="N13" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N13" s="0" t="inlineStr">
+      <c r="O13" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P13" s="0" t="inlineStr">
+      <c r="Q13" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1180,43 +1190,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr">
+      <c r="G14" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J14" s="0">
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K14" s="0">
         <v>1002</v>
       </c>
-      <c r="K14" s="0">
-        <v>7</v>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
+      <c r="L14" s="0">
+        <v>7</v>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N14" s="0" t="inlineStr">
+      <c r="O14" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P14" s="0" t="inlineStr">
+      <c r="Q14" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1242,43 +1252,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F15" s="0" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J15" s="0">
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K15" s="0">
         <v>1015</v>
       </c>
-      <c r="K15" s="0">
-        <v>7</v>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
+      <c r="L15" s="0">
+        <v>7</v>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M15" s="0" t="inlineStr">
+      <c r="N15" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N15" s="0" t="inlineStr">
+      <c r="O15" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P15" s="0" t="inlineStr">
+      <c r="Q15" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1304,43 +1314,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J16" s="0">
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K16" s="0">
         <v>1021</v>
       </c>
-      <c r="K16" s="0">
+      <c r="L16" s="0">
         <v>8</v>
       </c>
-      <c r="L16" s="0" t="inlineStr">
+      <c r="M16" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M16" s="0" t="inlineStr">
+      <c r="N16" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N16" s="0" t="inlineStr">
+      <c r="O16" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P16" s="0" t="inlineStr">
+      <c r="Q16" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1366,43 +1376,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F17" s="0" t="inlineStr">
+      <c r="G17" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G17" s="0" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J17" s="0">
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K17" s="0">
         <v>999</v>
       </c>
-      <c r="K17" s="0">
-        <v>7</v>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
+      <c r="L17" s="0">
+        <v>7</v>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M17" s="0" t="inlineStr">
+      <c r="N17" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N17" s="0" t="inlineStr">
+      <c r="O17" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P17" s="0" t="inlineStr">
+      <c r="Q17" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1428,43 +1438,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F18" s="0" t="inlineStr">
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J18" s="0">
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K18" s="0">
         <v>1048</v>
       </c>
-      <c r="K18" s="0">
-        <v>7</v>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
+      <c r="L18" s="0">
+        <v>7</v>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M18" s="0" t="inlineStr">
+      <c r="N18" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N18" s="0" t="inlineStr">
+      <c r="O18" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P18" s="0" t="inlineStr">
+      <c r="Q18" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1490,43 +1500,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F19" s="0" t="inlineStr">
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G19" s="0" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J19" s="0">
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K19" s="0">
         <v>968</v>
       </c>
-      <c r="K19" s="0">
-        <v>7</v>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
+      <c r="L19" s="0">
+        <v>7</v>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M19" s="0" t="inlineStr">
+      <c r="N19" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N19" s="0" t="inlineStr">
+      <c r="O19" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P19" s="0" t="inlineStr">
+      <c r="Q19" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1552,43 +1562,43 @@
           <t>Fall</t>
         </is>
       </c>
-      <c r="F20" s="0" t="inlineStr">
+      <c r="G20" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
         </is>
       </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>Not recorded</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>Hallwood Release Site</t>
-        </is>
-      </c>
-      <c r="J20" s="0">
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>Hallwood Release Site</t>
+        </is>
+      </c>
+      <c r="K20" s="0">
         <v>340</v>
       </c>
-      <c r="K20" s="0">
-        <v>7</v>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
+      <c r="L20" s="0">
+        <v>7</v>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
         <is>
           <t>Elastomer</t>
         </is>
       </c>
-      <c r="M20" s="0" t="inlineStr">
+      <c r="N20" s="0" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="N20" s="0" t="inlineStr">
+      <c r="O20" s="0" t="inlineStr">
         <is>
           <t>Nose</t>
         </is>
       </c>
-      <c r="P20" s="0" t="inlineStr">
+      <c r="Q20" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
